--- a/TestData/LV_TMTT0038660_VerifyTheFunctionalityOfTimeClockRecorderForFVAStandardUserOnSFLightningView.xlsx
+++ b/TestData/LV_TMTT0038660_VerifyTheFunctionalityOfTimeClockRecorderForFVAStandardUserOnSFLightningView.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AF6E2D-5E1B-4286-9276-3A453F5D4C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B14558A-2CBE-4C61-93E1-86E84BFD8B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="5" r:id="rId1"/>
@@ -106,15 +106,9 @@
     <t>Time Tracking Litigation</t>
   </si>
   <si>
-    <t>Debevoise_Xie (Compo Expert)-Debevoise &amp; Plimpton LLP-FVA-26522</t>
-  </si>
-  <si>
     <t>Ashley Choi</t>
   </si>
   <si>
-    <t>MEH) Thompson_CLP Toxicology-Thompson Hine, LLP-FVA-26495</t>
-  </si>
-  <si>
     <t>Time Tracking Litigation Supervisor</t>
   </si>
   <si>
@@ -125,6 +119,12 @@
   </si>
   <si>
     <t>Project Selection Required</t>
+  </si>
+  <si>
+    <t>Project Beach - Tax-StoicLane-FVA-122317</t>
+  </si>
+  <si>
+    <t>Wittliff_Goodkind-Wittliff Cutter PLLC-FVA-109581</t>
   </si>
 </sst>
 </file>
@@ -485,14 +485,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -514,12 +514,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
@@ -539,14 +539,14 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -564,17 +564,17 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -588,21 +588,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" customWidth="1"/>
+    <col min="1" max="1" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -620,9 +620,9 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -638,9 +638,9 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -669,22 +669,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -692,7 +692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -709,23 +709,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66670B75-81D5-4367-B427-F894F505E824}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LV_TMTT0038660_VerifyTheFunctionalityOfTimeClockRecorderForFVAStandardUserOnSFLightningView.xlsx
+++ b/TestData/LV_TMTT0038660_VerifyTheFunctionalityOfTimeClockRecorderForFVAStandardUserOnSFLightningView.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B14558A-2CBE-4C61-93E1-86E84BFD8B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66A8677-B400-413F-9592-A6A31321014F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="5" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t>Time Tracking Litigation</t>
   </si>
   <si>
-    <t>Ashley Choi</t>
-  </si>
-  <si>
     <t>Time Tracking Litigation Supervisor</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Wittliff_Goodkind-Wittliff Cutter PLLC-FVA-109581</t>
+  </si>
+  <si>
+    <t>Aadarsh Patel</t>
   </si>
 </sst>
 </file>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,11 +515,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
@@ -588,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -622,7 +622,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -678,7 +678,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -720,12 +720,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
